--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value968.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value968.xlsx
@@ -354,10 +354,10 @@
         <v>1.621123948574946</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.010131012213514</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value968.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value968.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209684244374757</v>
+        <v>0.943671703338623</v>
       </c>
       <c r="B1">
-        <v>1.621123948574946</v>
+        <v>1.317521810531616</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.899257659912109</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>5.277941226959229</v>
       </c>
       <c r="E1">
-        <v>1.010131012213514</v>
+        <v>1.925993323326111</v>
       </c>
     </row>
   </sheetData>
